--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simasset1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DA0C86-8A01-4FA1-958E-0EB6DF672569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD4D317-0182-46E2-A4F2-75D260195C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3F14D786-EF4A-4F18-A4AF-35B8C3434F90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{3F14D786-EF4A-4F18-A4AF-35B8C3434F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>menu</t>
   </si>
@@ -115,6 +117,42 @@
   <si>
     <t>break</t>
   </si>
+  <si>
+    <t>kategori</t>
+  </si>
+  <si>
+    <t>asset value depreciation</t>
+  </si>
+  <si>
+    <t>asset tracker</t>
+  </si>
+  <si>
+    <t>summary report nilai asset berdasarkan grouping</t>
+  </si>
+  <si>
+    <t>proses handover, code no =&gt; tidak digunakan</t>
+  </si>
+  <si>
+    <t>tampilan dashboard :: perlu atau tidak ?</t>
+  </si>
+  <si>
+    <t>data grouping asset berubah, detail perubahan masih menunggu update</t>
+  </si>
+  <si>
+    <t>master asset berubah, detail perubahan masih menunggu update</t>
+  </si>
+  <si>
+    <t>data departemen dan location dipisah, detail perubahan masih menunggu update</t>
+  </si>
+  <si>
+    <t>rumus perhitungan nilai penyusutan berubah, detail perubahan masih menunggu update, tidak ada estimasi nilai sisa</t>
+  </si>
+  <si>
+    <t>management report untuk history asset2 yang sudah pindah atau berubah posisi</t>
+  </si>
+  <si>
+    <t>saat perubahan posisi asset :: mulai penghitungan asset dilakukan sesuai periode pemindahan</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -240,6 +278,18 @@
     </xf>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,11 +855,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC1914A-F87E-4945-8774-E3297C112F8D}">
   <dimension ref="A1:N511"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1275,9 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="11">
+        <v>44006.564583333333</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="10"/>
       <c r="H25" s="5"/>
@@ -7084,4 +7136,156 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685EE166-1AA4-436F-B44F-8D16084AB467}">
+  <dimension ref="B1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="23" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="100.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="22">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="25">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="25"/>
+      <c r="D4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{454FB939-4B79-48F6-9BA7-D29B3A9EC79F}">
+          <x14:formula1>
+            <xm:f>Sheet3!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E118</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6BC76F-464D-4A91-BD98-59E75112EF7F}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simasset1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD4D317-0182-46E2-A4F2-75D260195C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069060C7-8538-4160-8155-DC72A57B77D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{3F14D786-EF4A-4F18-A4AF-35B8C3434F90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3F14D786-EF4A-4F18-A4AF-35B8C3434F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>menu</t>
   </si>
@@ -109,12 +109,6 @@
     <t>penambahan daftar penyusutan untuk tiap2 asset (item)</t>
   </si>
   <si>
-    <t xml:space="preserve">  OWNER TO PROPERTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PROPERTY TO PERSONNEL/DEPT</t>
-  </si>
-  <si>
     <t>break</t>
   </si>
   <si>
@@ -152,6 +146,21 @@
   </si>
   <si>
     <t>saat perubahan posisi asset :: mulai penghitungan asset dilakukan sesuai periode pemindahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PROPERTY TO PERSONNEL/DEPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OWNER TO PROPERTY</t>
+  </si>
+  <si>
+    <t>ASSET GROUP</t>
+  </si>
+  <si>
+    <t>update / revisi tabel</t>
+  </si>
+  <si>
+    <t>berdasarkan revisi dari mbak intan</t>
   </si>
 </sst>
 </file>
@@ -214,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -249,32 +258,17 @@
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -296,6 +290,54 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="dotted">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="dotted">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -427,25 +469,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -486,35 +509,6 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="dotted">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="dotted">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -529,7 +523,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{27DE74F8-823A-49F2-A213-7AA24C353506}" name="Table4" displayName="Table4" ref="B1:J508" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{27DE74F8-823A-49F2-A213-7AA24C353506}" name="Table4" displayName="Table4" ref="B1:J508" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="B1:J508" xr:uid="{F8180A44-1D43-4957-8440-1F7B4185231D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -542,15 +536,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{19E92522-A6BD-4E94-B856-DC94D39D3F18}" name="no." dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{21A26A3A-B891-434C-B061-34BF26256B76}" name="Column3" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{345AEBF9-ED2D-45FA-B779-47421EBCAD2F}" name="menu" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{2C540197-2891-4885-B538-F7775156BB8B}" name="start @" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{1F2DABCE-4E8C-4388-941B-EA65019652EF}" name="pending @" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8DC73AAD-6DCA-4E86-8C49-C7A61A4F2F1C}" name="proses" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{6D372FF9-441F-4340-BC7F-9B6FEB57529E}" name="done @" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{D6ABF375-7A7F-41BC-A4D3-EEA7C3FBE70B}" name="note" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{12B45525-556A-45E4-88CF-711421845045}" name="Column2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{19E92522-A6BD-4E94-B856-DC94D39D3F18}" name="no." dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{21A26A3A-B891-434C-B061-34BF26256B76}" name="Column3" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{345AEBF9-ED2D-45FA-B779-47421EBCAD2F}" name="menu" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{2C540197-2891-4885-B538-F7775156BB8B}" name="start @" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{1F2DABCE-4E8C-4388-941B-EA65019652EF}" name="pending @" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{8DC73AAD-6DCA-4E86-8C49-C7A61A4F2F1C}" name="proses" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{6D372FF9-441F-4340-BC7F-9B6FEB57529E}" name="done @" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{D6ABF375-7A7F-41BC-A4D3-EEA7C3FBE70B}" name="note" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{12B45525-556A-45E4-88CF-711421845045}" name="Column2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -855,11 +849,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC1914A-F87E-4945-8774-E3297C112F8D}">
   <dimension ref="A1:N511"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +861,7 @@
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" customWidth="1"/>
@@ -886,7 +880,7 @@
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -912,7 +906,7 @@
     <row r="2" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="12"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -923,10 +917,10 @@
     </row>
     <row r="3" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
@@ -937,8 +931,8 @@
     </row>
     <row r="4" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="6"/>
@@ -954,15 +948,15 @@
         <v>1</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="21">
+      <c r="D5" s="6"/>
+      <c r="E5" s="16">
         <v>43999.250694444447</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="16">
         <v>43999.256944444445</v>
       </c>
       <c r="I5" s="6"/>
@@ -972,7 +966,7 @@
     <row r="6" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
@@ -983,10 +977,10 @@
     </row>
     <row r="7" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
@@ -997,8 +991,8 @@
     </row>
     <row r="8" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="6"/>
@@ -1014,15 +1008,15 @@
         <v>1</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="21">
+      <c r="D9" s="6"/>
+      <c r="E9" s="16">
         <v>44001.522916666669</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="16">
         <v>44002.984722222223</v>
       </c>
       <c r="I9" s="6"/>
@@ -1032,7 +1026,7 @@
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
@@ -1043,10 +1037,10 @@
     </row>
     <row r="11" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -1057,8 +1051,8 @@
     </row>
     <row r="12" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5"/>
@@ -1071,9 +1065,9 @@
     </row>
     <row r="13" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20" t="s">
-        <v>23</v>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1088,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5"/>
       <c r="G14" s="10"/>
@@ -1106,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="11">
         <v>43972.452777777777</v>
       </c>
@@ -1126,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="11">
         <v>43972.821527777778</v>
       </c>
@@ -1146,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="11">
         <v>43974.520833333336</v>
       </c>
@@ -1166,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="11">
         <v>43974.583333333336</v>
       </c>
@@ -1188,7 +1182,7 @@
     <row r="19" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="10"/>
@@ -1200,7 +1194,7 @@
     <row r="20" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="10"/>
@@ -1211,10 +1205,10 @@
     </row>
     <row r="21" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="10"/>
@@ -1225,8 +1219,8 @@
     </row>
     <row r="22" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="5"/>
@@ -1239,9 +1233,9 @@
     </row>
     <row r="23" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20" t="s">
-        <v>24</v>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1256,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="11">
         <v>44005.47152777778</v>
       </c>
@@ -1264,7 +1258,7 @@
         <v>44005.598611111112</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1274,7 +1268,7 @@
     <row r="25" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="11">
         <v>44006.564583333333</v>
       </c>
@@ -1288,7 +1282,7 @@
     <row r="26" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="10"/>
@@ -1299,8 +1293,10 @@
     </row>
     <row r="27" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="13"/>
+      <c r="C27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="10"/>
@@ -1312,7 +1308,9 @@
     <row r="28" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="10"/>
@@ -1322,21 +1320,29 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="11">
+        <v>44011.425694444442</v>
+      </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="J29" s="10"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="10"/>
@@ -1348,7 +1354,7 @@
     <row r="31" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="10"/>
@@ -1360,7 +1366,7 @@
     <row r="32" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="10"/>
@@ -1372,7 +1378,7 @@
     <row r="33" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="13"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="10"/>
@@ -1384,7 +1390,7 @@
     <row r="34" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="10"/>
@@ -1396,7 +1402,7 @@
     <row r="35" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="13"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="10"/>
@@ -1408,7 +1414,7 @@
     <row r="36" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="13"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="10"/>
@@ -1420,7 +1426,7 @@
     <row r="37" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="10"/>
@@ -1432,7 +1438,7 @@
     <row r="38" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="10"/>
@@ -1444,7 +1450,7 @@
     <row r="39" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="13"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="10"/>
@@ -1456,7 +1462,7 @@
     <row r="40" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="13"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="10"/>
@@ -1468,7 +1474,7 @@
     <row r="41" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="13"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="10"/>
@@ -1480,7 +1486,7 @@
     <row r="42" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="13"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="10"/>
@@ -1492,7 +1498,7 @@
     <row r="43" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="13"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="10"/>
@@ -1504,7 +1510,7 @@
     <row r="44" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="13"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="10"/>
@@ -1516,7 +1522,7 @@
     <row r="45" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="13"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="10"/>
@@ -1528,7 +1534,7 @@
     <row r="46" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="13"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="10"/>
@@ -1540,7 +1546,7 @@
     <row r="47" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="13"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="10"/>
@@ -1552,7 +1558,7 @@
     <row r="48" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="13"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="10"/>
@@ -1564,7 +1570,7 @@
     <row r="49" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="13"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="10"/>
@@ -1576,7 +1582,7 @@
     <row r="50" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="13"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="10"/>
@@ -1588,7 +1594,7 @@
     <row r="51" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="13"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="10"/>
@@ -1600,7 +1606,7 @@
     <row r="52" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="13"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="10"/>
@@ -1612,7 +1618,7 @@
     <row r="53" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="13"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="10"/>
@@ -1624,7 +1630,7 @@
     <row r="54" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="13"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="10"/>
@@ -1636,7 +1642,7 @@
     <row r="55" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="13"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="10"/>
@@ -1648,7 +1654,7 @@
     <row r="56" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="13"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="10"/>
@@ -1660,7 +1666,7 @@
     <row r="57" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="13"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="10"/>
@@ -1672,7 +1678,7 @@
     <row r="58" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="13"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="10"/>
@@ -1684,7 +1690,7 @@
     <row r="59" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="10"/>
@@ -1696,7 +1702,7 @@
     <row r="60" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="13"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="10"/>
@@ -1708,7 +1714,7 @@
     <row r="61" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="13"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="10"/>
@@ -1720,7 +1726,7 @@
     <row r="62" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="13"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="10"/>
@@ -1732,7 +1738,7 @@
     <row r="63" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="13"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="10"/>
@@ -1744,7 +1750,7 @@
     <row r="64" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="13"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="10"/>
@@ -1756,7 +1762,7 @@
     <row r="65" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="13"/>
+      <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="10"/>
@@ -1768,7 +1774,7 @@
     <row r="66" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="13"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="10"/>
@@ -1780,7 +1786,7 @@
     <row r="67" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="13"/>
+      <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="10"/>
@@ -1792,7 +1798,7 @@
     <row r="68" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="13"/>
+      <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="10"/>
@@ -1804,7 +1810,7 @@
     <row r="69" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="13"/>
+      <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="10"/>
@@ -1816,7 +1822,7 @@
     <row r="70" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="13"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="10"/>
@@ -1828,7 +1834,7 @@
     <row r="71" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="13"/>
+      <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="10"/>
@@ -1840,7 +1846,7 @@
     <row r="72" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="13"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="10"/>
@@ -1852,7 +1858,7 @@
     <row r="73" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="13"/>
+      <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="10"/>
@@ -1864,7 +1870,7 @@
     <row r="74" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="13"/>
+      <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="10"/>
@@ -1876,7 +1882,7 @@
     <row r="75" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="13"/>
+      <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="10"/>
@@ -1888,7 +1894,7 @@
     <row r="76" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="13"/>
+      <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="10"/>
@@ -1900,7 +1906,7 @@
     <row r="77" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="13"/>
+      <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="10"/>
@@ -1912,7 +1918,7 @@
     <row r="78" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="13"/>
+      <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="10"/>
@@ -1924,7 +1930,7 @@
     <row r="79" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="13"/>
+      <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="10"/>
@@ -1936,7 +1942,7 @@
     <row r="80" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="13"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="10"/>
@@ -1948,7 +1954,7 @@
     <row r="81" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="13"/>
+      <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="10"/>
@@ -1960,7 +1966,7 @@
     <row r="82" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="13"/>
+      <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="10"/>
@@ -1972,7 +1978,7 @@
     <row r="83" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="13"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="10"/>
@@ -1984,7 +1990,7 @@
     <row r="84" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="13"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="10"/>
@@ -1996,7 +2002,7 @@
     <row r="85" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="13"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="10"/>
@@ -2008,7 +2014,7 @@
     <row r="86" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="13"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="10"/>
@@ -2020,7 +2026,7 @@
     <row r="87" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="13"/>
+      <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="10"/>
@@ -2032,7 +2038,7 @@
     <row r="88" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="13"/>
+      <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="10"/>
@@ -2044,7 +2050,7 @@
     <row r="89" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="13"/>
+      <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="10"/>
@@ -2056,7 +2062,7 @@
     <row r="90" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="13"/>
+      <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="10"/>
@@ -2068,7 +2074,7 @@
     <row r="91" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="13"/>
+      <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="10"/>
@@ -2080,7 +2086,7 @@
     <row r="92" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="13"/>
+      <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="10"/>
@@ -2092,7 +2098,7 @@
     <row r="93" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="13"/>
+      <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="10"/>
@@ -2104,7 +2110,7 @@
     <row r="94" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="13"/>
+      <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="10"/>
@@ -2116,7 +2122,7 @@
     <row r="95" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="13"/>
+      <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="10"/>
@@ -2128,7 +2134,7 @@
     <row r="96" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="13"/>
+      <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="10"/>
@@ -2140,7 +2146,7 @@
     <row r="97" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="13"/>
+      <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="10"/>
@@ -2152,7 +2158,7 @@
     <row r="98" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="13"/>
+      <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="10"/>
@@ -2164,7 +2170,7 @@
     <row r="99" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="13"/>
+      <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="10"/>
@@ -2176,7 +2182,7 @@
     <row r="100" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="13"/>
+      <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="10"/>
@@ -2188,7 +2194,7 @@
     <row r="101" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="13"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="10"/>
@@ -2200,7 +2206,7 @@
     <row r="102" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="13"/>
+      <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="10"/>
@@ -2212,7 +2218,7 @@
     <row r="103" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="13"/>
+      <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="10"/>
@@ -2224,7 +2230,7 @@
     <row r="104" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="13"/>
+      <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="10"/>
@@ -2236,7 +2242,7 @@
     <row r="105" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="13"/>
+      <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="10"/>
@@ -2248,7 +2254,7 @@
     <row r="106" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="13"/>
+      <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="10"/>
@@ -2260,7 +2266,7 @@
     <row r="107" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
-      <c r="D107" s="13"/>
+      <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="10"/>
@@ -2272,7 +2278,7 @@
     <row r="108" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="13"/>
+      <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="10"/>
@@ -2284,7 +2290,7 @@
     <row r="109" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="13"/>
+      <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="10"/>
@@ -2296,7 +2302,7 @@
     <row r="110" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="13"/>
+      <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="10"/>
@@ -2308,7 +2314,7 @@
     <row r="111" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="13"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="10"/>
@@ -2320,7 +2326,7 @@
     <row r="112" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="13"/>
+      <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="10"/>
@@ -2332,7 +2338,7 @@
     <row r="113" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
-      <c r="D113" s="13"/>
+      <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="10"/>
@@ -2344,7 +2350,7 @@
     <row r="114" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="13"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="10"/>
@@ -2356,7 +2362,7 @@
     <row r="115" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="13"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="10"/>
@@ -2368,7 +2374,7 @@
     <row r="116" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="13"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="10"/>
@@ -2380,7 +2386,7 @@
     <row r="117" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
-      <c r="D117" s="13"/>
+      <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="10"/>
@@ -2392,7 +2398,7 @@
     <row r="118" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
-      <c r="D118" s="13"/>
+      <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="10"/>
@@ -2404,7 +2410,7 @@
     <row r="119" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
-      <c r="D119" s="13"/>
+      <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="10"/>
@@ -2416,7 +2422,7 @@
     <row r="120" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="13"/>
+      <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="10"/>
@@ -2428,7 +2434,7 @@
     <row r="121" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
-      <c r="D121" s="13"/>
+      <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="10"/>
@@ -2440,7 +2446,7 @@
     <row r="122" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
-      <c r="D122" s="13"/>
+      <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="10"/>
@@ -2452,7 +2458,7 @@
     <row r="123" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
-      <c r="D123" s="13"/>
+      <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="10"/>
@@ -2464,7 +2470,7 @@
     <row r="124" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
-      <c r="D124" s="13"/>
+      <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="10"/>
@@ -2476,7 +2482,7 @@
     <row r="125" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
-      <c r="D125" s="13"/>
+      <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="10"/>
@@ -2488,7 +2494,7 @@
     <row r="126" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="13"/>
+      <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="10"/>
@@ -2500,7 +2506,7 @@
     <row r="127" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
-      <c r="D127" s="13"/>
+      <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="10"/>
@@ -2512,7 +2518,7 @@
     <row r="128" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
-      <c r="D128" s="13"/>
+      <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="10"/>
@@ -2524,7 +2530,7 @@
     <row r="129" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
-      <c r="D129" s="13"/>
+      <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="10"/>
@@ -2536,7 +2542,7 @@
     <row r="130" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="13"/>
+      <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="10"/>
@@ -2548,7 +2554,7 @@
     <row r="131" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="13"/>
+      <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="10"/>
@@ -2560,7 +2566,7 @@
     <row r="132" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="13"/>
+      <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="10"/>
@@ -2572,7 +2578,7 @@
     <row r="133" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
-      <c r="D133" s="13"/>
+      <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="10"/>
@@ -2584,7 +2590,7 @@
     <row r="134" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
-      <c r="D134" s="13"/>
+      <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="10"/>
@@ -2596,7 +2602,7 @@
     <row r="135" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
-      <c r="D135" s="13"/>
+      <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="10"/>
@@ -2608,7 +2614,7 @@
     <row r="136" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
-      <c r="D136" s="13"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="10"/>
@@ -2620,7 +2626,7 @@
     <row r="137" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
-      <c r="D137" s="13"/>
+      <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="10"/>
@@ -2632,7 +2638,7 @@
     <row r="138" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
-      <c r="D138" s="13"/>
+      <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="10"/>
@@ -2644,7 +2650,7 @@
     <row r="139" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
-      <c r="D139" s="13"/>
+      <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="10"/>
@@ -2656,7 +2662,7 @@
     <row r="140" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
-      <c r="D140" s="13"/>
+      <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="10"/>
@@ -2668,7 +2674,7 @@
     <row r="141" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="13"/>
+      <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="10"/>
@@ -2680,7 +2686,7 @@
     <row r="142" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
-      <c r="D142" s="13"/>
+      <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="10"/>
@@ -2692,7 +2698,7 @@
     <row r="143" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
-      <c r="D143" s="13"/>
+      <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="10"/>
@@ -2704,7 +2710,7 @@
     <row r="144" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
-      <c r="D144" s="13"/>
+      <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="10"/>
@@ -2716,7 +2722,7 @@
     <row r="145" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
-      <c r="D145" s="13"/>
+      <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="10"/>
@@ -2728,7 +2734,7 @@
     <row r="146" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
-      <c r="D146" s="13"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="10"/>
@@ -2740,7 +2746,7 @@
     <row r="147" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="13"/>
+      <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="10"/>
@@ -2752,7 +2758,7 @@
     <row r="148" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
-      <c r="D148" s="13"/>
+      <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="10"/>
@@ -2764,7 +2770,7 @@
     <row r="149" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
-      <c r="D149" s="13"/>
+      <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="10"/>
@@ -2776,7 +2782,7 @@
     <row r="150" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="13"/>
+      <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="10"/>
@@ -2788,7 +2794,7 @@
     <row r="151" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
-      <c r="D151" s="13"/>
+      <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="10"/>
@@ -2800,7 +2806,7 @@
     <row r="152" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
-      <c r="D152" s="13"/>
+      <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="10"/>
@@ -2812,7 +2818,7 @@
     <row r="153" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
-      <c r="D153" s="13"/>
+      <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="10"/>
@@ -2824,7 +2830,7 @@
     <row r="154" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="13"/>
+      <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="10"/>
@@ -2836,7 +2842,7 @@
     <row r="155" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
-      <c r="D155" s="13"/>
+      <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="10"/>
@@ -2848,7 +2854,7 @@
     <row r="156" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="13"/>
+      <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="10"/>
@@ -2860,7 +2866,7 @@
     <row r="157" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="13"/>
+      <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="10"/>
@@ -2872,7 +2878,7 @@
     <row r="158" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="13"/>
+      <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="10"/>
@@ -2884,7 +2890,7 @@
     <row r="159" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="13"/>
+      <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="10"/>
@@ -2896,7 +2902,7 @@
     <row r="160" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="13"/>
+      <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="10"/>
@@ -2908,7 +2914,7 @@
     <row r="161" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="13"/>
+      <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="10"/>
@@ -2920,7 +2926,7 @@
     <row r="162" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="13"/>
+      <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="10"/>
@@ -2932,7 +2938,7 @@
     <row r="163" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
-      <c r="D163" s="13"/>
+      <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="10"/>
@@ -2944,7 +2950,7 @@
     <row r="164" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="13"/>
+      <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="10"/>
@@ -2956,7 +2962,7 @@
     <row r="165" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="13"/>
+      <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="10"/>
@@ -2968,7 +2974,7 @@
     <row r="166" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="13"/>
+      <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="10"/>
@@ -2980,7 +2986,7 @@
     <row r="167" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
-      <c r="D167" s="13"/>
+      <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="10"/>
@@ -2992,7 +2998,7 @@
     <row r="168" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
-      <c r="D168" s="13"/>
+      <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="10"/>
@@ -3004,7 +3010,7 @@
     <row r="169" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
-      <c r="D169" s="13"/>
+      <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="10"/>
@@ -3016,7 +3022,7 @@
     <row r="170" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
-      <c r="D170" s="13"/>
+      <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="10"/>
@@ -3028,7 +3034,7 @@
     <row r="171" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
-      <c r="D171" s="13"/>
+      <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="10"/>
@@ -3040,7 +3046,7 @@
     <row r="172" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="13"/>
+      <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="10"/>
@@ -3052,7 +3058,7 @@
     <row r="173" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
-      <c r="D173" s="13"/>
+      <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="10"/>
@@ -3064,7 +3070,7 @@
     <row r="174" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
-      <c r="D174" s="13"/>
+      <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="10"/>
@@ -3076,7 +3082,7 @@
     <row r="175" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
-      <c r="D175" s="13"/>
+      <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="10"/>
@@ -3088,7 +3094,7 @@
     <row r="176" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
-      <c r="D176" s="13"/>
+      <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="10"/>
@@ -3100,7 +3106,7 @@
     <row r="177" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
-      <c r="D177" s="13"/>
+      <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="10"/>
@@ -3112,7 +3118,7 @@
     <row r="178" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="13"/>
+      <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="10"/>
@@ -3124,7 +3130,7 @@
     <row r="179" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
-      <c r="D179" s="13"/>
+      <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="10"/>
@@ -3136,7 +3142,7 @@
     <row r="180" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="13"/>
+      <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="10"/>
@@ -3148,7 +3154,7 @@
     <row r="181" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
-      <c r="D181" s="13"/>
+      <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="10"/>
@@ -3160,7 +3166,7 @@
     <row r="182" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="13"/>
+      <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="10"/>
@@ -3172,7 +3178,7 @@
     <row r="183" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="13"/>
+      <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="10"/>
@@ -3184,7 +3190,7 @@
     <row r="184" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="13"/>
+      <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="10"/>
@@ -3196,7 +3202,7 @@
     <row r="185" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
-      <c r="D185" s="13"/>
+      <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="10"/>
@@ -3208,7 +3214,7 @@
     <row r="186" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
-      <c r="D186" s="13"/>
+      <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="10"/>
@@ -3220,7 +3226,7 @@
     <row r="187" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
-      <c r="D187" s="13"/>
+      <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="10"/>
@@ -3232,7 +3238,7 @@
     <row r="188" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
-      <c r="D188" s="13"/>
+      <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="10"/>
@@ -3244,7 +3250,7 @@
     <row r="189" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
-      <c r="D189" s="13"/>
+      <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="10"/>
@@ -3256,7 +3262,7 @@
     <row r="190" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
-      <c r="D190" s="13"/>
+      <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="10"/>
@@ -3268,7 +3274,7 @@
     <row r="191" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
-      <c r="D191" s="13"/>
+      <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="10"/>
@@ -3280,7 +3286,7 @@
     <row r="192" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
-      <c r="D192" s="13"/>
+      <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="10"/>
@@ -3292,7 +3298,7 @@
     <row r="193" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
-      <c r="D193" s="13"/>
+      <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="10"/>
@@ -3304,7 +3310,7 @@
     <row r="194" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
-      <c r="D194" s="13"/>
+      <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="10"/>
@@ -3316,7 +3322,7 @@
     <row r="195" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
-      <c r="D195" s="13"/>
+      <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="10"/>
@@ -3328,7 +3334,7 @@
     <row r="196" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
-      <c r="D196" s="13"/>
+      <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="10"/>
@@ -3340,7 +3346,7 @@
     <row r="197" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
-      <c r="D197" s="13"/>
+      <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="10"/>
@@ -3352,7 +3358,7 @@
     <row r="198" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
-      <c r="D198" s="13"/>
+      <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="10"/>
@@ -3364,7 +3370,7 @@
     <row r="199" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
-      <c r="D199" s="13"/>
+      <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="10"/>
@@ -3376,7 +3382,7 @@
     <row r="200" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
-      <c r="D200" s="13"/>
+      <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="10"/>
@@ -3388,7 +3394,7 @@
     <row r="201" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
-      <c r="D201" s="13"/>
+      <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="10"/>
@@ -3400,7 +3406,7 @@
     <row r="202" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
-      <c r="D202" s="13"/>
+      <c r="D202" s="5"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="10"/>
@@ -3412,7 +3418,7 @@
     <row r="203" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
-      <c r="D203" s="13"/>
+      <c r="D203" s="5"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="10"/>
@@ -3424,7 +3430,7 @@
     <row r="204" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
-      <c r="D204" s="13"/>
+      <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="10"/>
@@ -3436,7 +3442,7 @@
     <row r="205" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
-      <c r="D205" s="13"/>
+      <c r="D205" s="5"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="10"/>
@@ -3448,7 +3454,7 @@
     <row r="206" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
-      <c r="D206" s="13"/>
+      <c r="D206" s="5"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="10"/>
@@ -3460,7 +3466,7 @@
     <row r="207" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
-      <c r="D207" s="13"/>
+      <c r="D207" s="5"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="10"/>
@@ -3472,7 +3478,7 @@
     <row r="208" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
-      <c r="D208" s="13"/>
+      <c r="D208" s="5"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="10"/>
@@ -3484,7 +3490,7 @@
     <row r="209" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
-      <c r="D209" s="13"/>
+      <c r="D209" s="5"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="10"/>
@@ -3496,7 +3502,7 @@
     <row r="210" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
-      <c r="D210" s="13"/>
+      <c r="D210" s="5"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="10"/>
@@ -3508,7 +3514,7 @@
     <row r="211" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
-      <c r="D211" s="13"/>
+      <c r="D211" s="5"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="10"/>
@@ -3520,7 +3526,7 @@
     <row r="212" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
-      <c r="D212" s="13"/>
+      <c r="D212" s="5"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="10"/>
@@ -3532,7 +3538,7 @@
     <row r="213" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
-      <c r="D213" s="13"/>
+      <c r="D213" s="5"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="10"/>
@@ -3544,7 +3550,7 @@
     <row r="214" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
-      <c r="D214" s="13"/>
+      <c r="D214" s="5"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="10"/>
@@ -3556,7 +3562,7 @@
     <row r="215" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
-      <c r="D215" s="13"/>
+      <c r="D215" s="5"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="10"/>
@@ -3568,7 +3574,7 @@
     <row r="216" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
-      <c r="D216" s="13"/>
+      <c r="D216" s="5"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="10"/>
@@ -3580,7 +3586,7 @@
     <row r="217" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
-      <c r="D217" s="13"/>
+      <c r="D217" s="5"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="10"/>
@@ -3592,7 +3598,7 @@
     <row r="218" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
-      <c r="D218" s="13"/>
+      <c r="D218" s="5"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="10"/>
@@ -3604,7 +3610,7 @@
     <row r="219" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
-      <c r="D219" s="13"/>
+      <c r="D219" s="5"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="10"/>
@@ -3616,7 +3622,7 @@
     <row r="220" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
-      <c r="D220" s="13"/>
+      <c r="D220" s="5"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="10"/>
@@ -3628,7 +3634,7 @@
     <row r="221" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
-      <c r="D221" s="13"/>
+      <c r="D221" s="5"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="10"/>
@@ -3640,7 +3646,7 @@
     <row r="222" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
-      <c r="D222" s="13"/>
+      <c r="D222" s="5"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="10"/>
@@ -3652,7 +3658,7 @@
     <row r="223" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
-      <c r="D223" s="13"/>
+      <c r="D223" s="5"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
       <c r="G223" s="10"/>
@@ -3664,7 +3670,7 @@
     <row r="224" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
-      <c r="D224" s="13"/>
+      <c r="D224" s="5"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
       <c r="G224" s="10"/>
@@ -3676,7 +3682,7 @@
     <row r="225" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
-      <c r="D225" s="13"/>
+      <c r="D225" s="5"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="10"/>
@@ -3688,7 +3694,7 @@
     <row r="226" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
-      <c r="D226" s="13"/>
+      <c r="D226" s="5"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="10"/>
@@ -3700,7 +3706,7 @@
     <row r="227" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
-      <c r="D227" s="13"/>
+      <c r="D227" s="5"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="10"/>
@@ -3712,7 +3718,7 @@
     <row r="228" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
-      <c r="D228" s="13"/>
+      <c r="D228" s="5"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
       <c r="G228" s="10"/>
@@ -3724,7 +3730,7 @@
     <row r="229" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
-      <c r="D229" s="13"/>
+      <c r="D229" s="5"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
       <c r="G229" s="10"/>
@@ -3736,7 +3742,7 @@
     <row r="230" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
-      <c r="D230" s="13"/>
+      <c r="D230" s="5"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
       <c r="G230" s="10"/>
@@ -3748,7 +3754,7 @@
     <row r="231" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
-      <c r="D231" s="13"/>
+      <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
       <c r="G231" s="10"/>
@@ -3760,7 +3766,7 @@
     <row r="232" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
-      <c r="D232" s="13"/>
+      <c r="D232" s="5"/>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
       <c r="G232" s="10"/>
@@ -3772,7 +3778,7 @@
     <row r="233" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
-      <c r="D233" s="13"/>
+      <c r="D233" s="5"/>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
       <c r="G233" s="10"/>
@@ -3784,7 +3790,7 @@
     <row r="234" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
-      <c r="D234" s="13"/>
+      <c r="D234" s="5"/>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
       <c r="G234" s="10"/>
@@ -3796,7 +3802,7 @@
     <row r="235" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
-      <c r="D235" s="13"/>
+      <c r="D235" s="5"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
       <c r="G235" s="10"/>
@@ -3808,7 +3814,7 @@
     <row r="236" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
-      <c r="D236" s="13"/>
+      <c r="D236" s="5"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
       <c r="G236" s="10"/>
@@ -3820,7 +3826,7 @@
     <row r="237" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
-      <c r="D237" s="13"/>
+      <c r="D237" s="5"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
       <c r="G237" s="10"/>
@@ -3832,7 +3838,7 @@
     <row r="238" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
-      <c r="D238" s="13"/>
+      <c r="D238" s="5"/>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
       <c r="G238" s="10"/>
@@ -3844,7 +3850,7 @@
     <row r="239" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
-      <c r="D239" s="13"/>
+      <c r="D239" s="5"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
       <c r="G239" s="10"/>
@@ -3856,7 +3862,7 @@
     <row r="240" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
-      <c r="D240" s="13"/>
+      <c r="D240" s="5"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
       <c r="G240" s="10"/>
@@ -3868,7 +3874,7 @@
     <row r="241" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
-      <c r="D241" s="13"/>
+      <c r="D241" s="5"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
       <c r="G241" s="10"/>
@@ -3880,7 +3886,7 @@
     <row r="242" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
-      <c r="D242" s="13"/>
+      <c r="D242" s="5"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
       <c r="G242" s="10"/>
@@ -3892,7 +3898,7 @@
     <row r="243" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
-      <c r="D243" s="13"/>
+      <c r="D243" s="5"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
       <c r="G243" s="10"/>
@@ -3904,7 +3910,7 @@
     <row r="244" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
-      <c r="D244" s="13"/>
+      <c r="D244" s="5"/>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
       <c r="G244" s="10"/>
@@ -3916,7 +3922,7 @@
     <row r="245" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
-      <c r="D245" s="13"/>
+      <c r="D245" s="5"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
       <c r="G245" s="10"/>
@@ -3928,7 +3934,7 @@
     <row r="246" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
-      <c r="D246" s="13"/>
+      <c r="D246" s="5"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
       <c r="G246" s="10"/>
@@ -3940,7 +3946,7 @@
     <row r="247" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
-      <c r="D247" s="13"/>
+      <c r="D247" s="5"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
       <c r="G247" s="10"/>
@@ -3952,7 +3958,7 @@
     <row r="248" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
-      <c r="D248" s="13"/>
+      <c r="D248" s="5"/>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
       <c r="G248" s="10"/>
@@ -3964,7 +3970,7 @@
     <row r="249" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
-      <c r="D249" s="13"/>
+      <c r="D249" s="5"/>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
       <c r="G249" s="10"/>
@@ -3976,7 +3982,7 @@
     <row r="250" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
-      <c r="D250" s="13"/>
+      <c r="D250" s="5"/>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
       <c r="G250" s="10"/>
@@ -3988,7 +3994,7 @@
     <row r="251" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
-      <c r="D251" s="13"/>
+      <c r="D251" s="5"/>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
       <c r="G251" s="10"/>
@@ -4000,7 +4006,7 @@
     <row r="252" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
-      <c r="D252" s="13"/>
+      <c r="D252" s="5"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="10"/>
@@ -4012,7 +4018,7 @@
     <row r="253" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
-      <c r="D253" s="13"/>
+      <c r="D253" s="5"/>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
       <c r="G253" s="10"/>
@@ -4024,7 +4030,7 @@
     <row r="254" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
-      <c r="D254" s="13"/>
+      <c r="D254" s="5"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
       <c r="G254" s="10"/>
@@ -4036,7 +4042,7 @@
     <row r="255" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
-      <c r="D255" s="13"/>
+      <c r="D255" s="5"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
       <c r="G255" s="10"/>
@@ -4048,7 +4054,7 @@
     <row r="256" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
-      <c r="D256" s="13"/>
+      <c r="D256" s="5"/>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
       <c r="G256" s="10"/>
@@ -4060,7 +4066,7 @@
     <row r="257" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
-      <c r="D257" s="13"/>
+      <c r="D257" s="5"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
       <c r="G257" s="10"/>
@@ -4072,7 +4078,7 @@
     <row r="258" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
-      <c r="D258" s="13"/>
+      <c r="D258" s="5"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
       <c r="G258" s="10"/>
@@ -4084,7 +4090,7 @@
     <row r="259" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
-      <c r="D259" s="13"/>
+      <c r="D259" s="5"/>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
       <c r="G259" s="10"/>
@@ -4096,7 +4102,7 @@
     <row r="260" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
-      <c r="D260" s="13"/>
+      <c r="D260" s="5"/>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
       <c r="G260" s="10"/>
@@ -4108,7 +4114,7 @@
     <row r="261" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
-      <c r="D261" s="13"/>
+      <c r="D261" s="5"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
       <c r="G261" s="10"/>
@@ -4120,7 +4126,7 @@
     <row r="262" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
-      <c r="D262" s="13"/>
+      <c r="D262" s="5"/>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
       <c r="G262" s="10"/>
@@ -4132,7 +4138,7 @@
     <row r="263" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
-      <c r="D263" s="13"/>
+      <c r="D263" s="5"/>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
       <c r="G263" s="10"/>
@@ -4144,7 +4150,7 @@
     <row r="264" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
-      <c r="D264" s="13"/>
+      <c r="D264" s="5"/>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
       <c r="G264" s="10"/>
@@ -4156,7 +4162,7 @@
     <row r="265" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
-      <c r="D265" s="13"/>
+      <c r="D265" s="5"/>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
       <c r="G265" s="10"/>
@@ -4168,7 +4174,7 @@
     <row r="266" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
-      <c r="D266" s="13"/>
+      <c r="D266" s="5"/>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
       <c r="G266" s="10"/>
@@ -4180,7 +4186,7 @@
     <row r="267" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
-      <c r="D267" s="13"/>
+      <c r="D267" s="5"/>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
       <c r="G267" s="10"/>
@@ -4192,7 +4198,7 @@
     <row r="268" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
-      <c r="D268" s="13"/>
+      <c r="D268" s="5"/>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
       <c r="G268" s="10"/>
@@ -4204,7 +4210,7 @@
     <row r="269" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
-      <c r="D269" s="13"/>
+      <c r="D269" s="5"/>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
       <c r="G269" s="10"/>
@@ -4216,7 +4222,7 @@
     <row r="270" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
-      <c r="D270" s="13"/>
+      <c r="D270" s="5"/>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
       <c r="G270" s="10"/>
@@ -4228,7 +4234,7 @@
     <row r="271" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
-      <c r="D271" s="13"/>
+      <c r="D271" s="5"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
       <c r="G271" s="10"/>
@@ -4240,7 +4246,7 @@
     <row r="272" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
-      <c r="D272" s="13"/>
+      <c r="D272" s="5"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
       <c r="G272" s="10"/>
@@ -4252,7 +4258,7 @@
     <row r="273" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
-      <c r="D273" s="13"/>
+      <c r="D273" s="5"/>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
       <c r="G273" s="10"/>
@@ -4264,7 +4270,7 @@
     <row r="274" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
-      <c r="D274" s="13"/>
+      <c r="D274" s="5"/>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
       <c r="G274" s="10"/>
@@ -4276,7 +4282,7 @@
     <row r="275" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
-      <c r="D275" s="13"/>
+      <c r="D275" s="5"/>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
       <c r="G275" s="10"/>
@@ -4288,7 +4294,7 @@
     <row r="276" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
-      <c r="D276" s="13"/>
+      <c r="D276" s="5"/>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
       <c r="G276" s="10"/>
@@ -4300,7 +4306,7 @@
     <row r="277" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
-      <c r="D277" s="13"/>
+      <c r="D277" s="5"/>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
       <c r="G277" s="10"/>
@@ -4312,7 +4318,7 @@
     <row r="278" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
-      <c r="D278" s="13"/>
+      <c r="D278" s="5"/>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
       <c r="G278" s="10"/>
@@ -4324,7 +4330,7 @@
     <row r="279" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
-      <c r="D279" s="13"/>
+      <c r="D279" s="5"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
       <c r="G279" s="10"/>
@@ -4336,7 +4342,7 @@
     <row r="280" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
-      <c r="D280" s="13"/>
+      <c r="D280" s="5"/>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
       <c r="G280" s="10"/>
@@ -4348,7 +4354,7 @@
     <row r="281" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
-      <c r="D281" s="13"/>
+      <c r="D281" s="5"/>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
       <c r="G281" s="10"/>
@@ -4360,7 +4366,7 @@
     <row r="282" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
-      <c r="D282" s="13"/>
+      <c r="D282" s="5"/>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
       <c r="G282" s="10"/>
@@ -4372,7 +4378,7 @@
     <row r="283" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
-      <c r="D283" s="13"/>
+      <c r="D283" s="5"/>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
       <c r="G283" s="10"/>
@@ -4384,7 +4390,7 @@
     <row r="284" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
-      <c r="D284" s="13"/>
+      <c r="D284" s="5"/>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
       <c r="G284" s="10"/>
@@ -4396,7 +4402,7 @@
     <row r="285" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
-      <c r="D285" s="13"/>
+      <c r="D285" s="5"/>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
       <c r="G285" s="10"/>
@@ -4408,7 +4414,7 @@
     <row r="286" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
-      <c r="D286" s="13"/>
+      <c r="D286" s="5"/>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
       <c r="G286" s="10"/>
@@ -4420,7 +4426,7 @@
     <row r="287" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
-      <c r="D287" s="13"/>
+      <c r="D287" s="5"/>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
       <c r="G287" s="10"/>
@@ -4432,7 +4438,7 @@
     <row r="288" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
-      <c r="D288" s="13"/>
+      <c r="D288" s="5"/>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
       <c r="G288" s="10"/>
@@ -4444,7 +4450,7 @@
     <row r="289" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
-      <c r="D289" s="13"/>
+      <c r="D289" s="5"/>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
       <c r="G289" s="10"/>
@@ -4456,7 +4462,7 @@
     <row r="290" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
-      <c r="D290" s="13"/>
+      <c r="D290" s="5"/>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
       <c r="G290" s="10"/>
@@ -4468,7 +4474,7 @@
     <row r="291" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
-      <c r="D291" s="13"/>
+      <c r="D291" s="5"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
       <c r="G291" s="10"/>
@@ -4480,7 +4486,7 @@
     <row r="292" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
-      <c r="D292" s="13"/>
+      <c r="D292" s="5"/>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
       <c r="G292" s="10"/>
@@ -4492,7 +4498,7 @@
     <row r="293" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
-      <c r="D293" s="13"/>
+      <c r="D293" s="5"/>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
       <c r="G293" s="10"/>
@@ -4504,7 +4510,7 @@
     <row r="294" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
-      <c r="D294" s="13"/>
+      <c r="D294" s="5"/>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
       <c r="G294" s="10"/>
@@ -4516,7 +4522,7 @@
     <row r="295" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
-      <c r="D295" s="13"/>
+      <c r="D295" s="5"/>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
       <c r="G295" s="10"/>
@@ -4528,7 +4534,7 @@
     <row r="296" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
-      <c r="D296" s="13"/>
+      <c r="D296" s="5"/>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
       <c r="G296" s="10"/>
@@ -4540,7 +4546,7 @@
     <row r="297" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
-      <c r="D297" s="13"/>
+      <c r="D297" s="5"/>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
       <c r="G297" s="10"/>
@@ -4552,7 +4558,7 @@
     <row r="298" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
-      <c r="D298" s="13"/>
+      <c r="D298" s="5"/>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
       <c r="G298" s="10"/>
@@ -4564,7 +4570,7 @@
     <row r="299" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
-      <c r="D299" s="13"/>
+      <c r="D299" s="5"/>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
       <c r="G299" s="10"/>
@@ -4576,7 +4582,7 @@
     <row r="300" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
-      <c r="D300" s="13"/>
+      <c r="D300" s="5"/>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
       <c r="G300" s="10"/>
@@ -4588,7 +4594,7 @@
     <row r="301" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
-      <c r="D301" s="13"/>
+      <c r="D301" s="5"/>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
       <c r="G301" s="10"/>
@@ -4600,7 +4606,7 @@
     <row r="302" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
-      <c r="D302" s="13"/>
+      <c r="D302" s="5"/>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
       <c r="G302" s="10"/>
@@ -4612,7 +4618,7 @@
     <row r="303" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
-      <c r="D303" s="13"/>
+      <c r="D303" s="5"/>
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
       <c r="G303" s="10"/>
@@ -4624,7 +4630,7 @@
     <row r="304" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
-      <c r="D304" s="13"/>
+      <c r="D304" s="5"/>
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
       <c r="G304" s="10"/>
@@ -4636,7 +4642,7 @@
     <row r="305" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
-      <c r="D305" s="13"/>
+      <c r="D305" s="5"/>
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
       <c r="G305" s="10"/>
@@ -4648,7 +4654,7 @@
     <row r="306" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
-      <c r="D306" s="13"/>
+      <c r="D306" s="5"/>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
       <c r="G306" s="10"/>
@@ -4660,7 +4666,7 @@
     <row r="307" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
-      <c r="D307" s="13"/>
+      <c r="D307" s="5"/>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
       <c r="G307" s="10"/>
@@ -4672,7 +4678,7 @@
     <row r="308" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
-      <c r="D308" s="13"/>
+      <c r="D308" s="5"/>
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
       <c r="G308" s="10"/>
@@ -4684,7 +4690,7 @@
     <row r="309" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
-      <c r="D309" s="13"/>
+      <c r="D309" s="5"/>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
       <c r="G309" s="10"/>
@@ -4696,7 +4702,7 @@
     <row r="310" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
-      <c r="D310" s="13"/>
+      <c r="D310" s="5"/>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
       <c r="G310" s="10"/>
@@ -4708,7 +4714,7 @@
     <row r="311" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
-      <c r="D311" s="13"/>
+      <c r="D311" s="5"/>
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
       <c r="G311" s="10"/>
@@ -4720,7 +4726,7 @@
     <row r="312" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
-      <c r="D312" s="13"/>
+      <c r="D312" s="5"/>
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
       <c r="G312" s="10"/>
@@ -4732,7 +4738,7 @@
     <row r="313" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
-      <c r="D313" s="13"/>
+      <c r="D313" s="5"/>
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
       <c r="G313" s="10"/>
@@ -4744,7 +4750,7 @@
     <row r="314" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
-      <c r="D314" s="13"/>
+      <c r="D314" s="5"/>
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
       <c r="G314" s="10"/>
@@ -4756,7 +4762,7 @@
     <row r="315" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
-      <c r="D315" s="13"/>
+      <c r="D315" s="5"/>
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
       <c r="G315" s="10"/>
@@ -4768,7 +4774,7 @@
     <row r="316" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
-      <c r="D316" s="13"/>
+      <c r="D316" s="5"/>
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
       <c r="G316" s="10"/>
@@ -4780,7 +4786,7 @@
     <row r="317" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
-      <c r="D317" s="13"/>
+      <c r="D317" s="5"/>
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
       <c r="G317" s="10"/>
@@ -4792,7 +4798,7 @@
     <row r="318" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
-      <c r="D318" s="13"/>
+      <c r="D318" s="5"/>
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
       <c r="G318" s="10"/>
@@ -4804,7 +4810,7 @@
     <row r="319" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
-      <c r="D319" s="13"/>
+      <c r="D319" s="5"/>
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
       <c r="G319" s="10"/>
@@ -4816,7 +4822,7 @@
     <row r="320" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
-      <c r="D320" s="13"/>
+      <c r="D320" s="5"/>
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
       <c r="G320" s="10"/>
@@ -4828,7 +4834,7 @@
     <row r="321" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
-      <c r="D321" s="13"/>
+      <c r="D321" s="5"/>
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
       <c r="G321" s="10"/>
@@ -4840,7 +4846,7 @@
     <row r="322" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
-      <c r="D322" s="13"/>
+      <c r="D322" s="5"/>
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
       <c r="G322" s="10"/>
@@ -4852,7 +4858,7 @@
     <row r="323" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
-      <c r="D323" s="13"/>
+      <c r="D323" s="5"/>
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
       <c r="G323" s="10"/>
@@ -4864,7 +4870,7 @@
     <row r="324" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
-      <c r="D324" s="13"/>
+      <c r="D324" s="5"/>
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
       <c r="G324" s="10"/>
@@ -4876,7 +4882,7 @@
     <row r="325" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
-      <c r="D325" s="13"/>
+      <c r="D325" s="5"/>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
       <c r="G325" s="10"/>
@@ -4888,7 +4894,7 @@
     <row r="326" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
-      <c r="D326" s="13"/>
+      <c r="D326" s="5"/>
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
       <c r="G326" s="10"/>
@@ -4900,7 +4906,7 @@
     <row r="327" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
-      <c r="D327" s="13"/>
+      <c r="D327" s="5"/>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
       <c r="G327" s="10"/>
@@ -4912,7 +4918,7 @@
     <row r="328" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
-      <c r="D328" s="13"/>
+      <c r="D328" s="5"/>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
       <c r="G328" s="10"/>
@@ -4924,7 +4930,7 @@
     <row r="329" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
-      <c r="D329" s="13"/>
+      <c r="D329" s="5"/>
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
       <c r="G329" s="10"/>
@@ -4936,7 +4942,7 @@
     <row r="330" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
-      <c r="D330" s="13"/>
+      <c r="D330" s="5"/>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
       <c r="G330" s="10"/>
@@ -4948,7 +4954,7 @@
     <row r="331" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
-      <c r="D331" s="13"/>
+      <c r="D331" s="5"/>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
       <c r="G331" s="10"/>
@@ -4960,7 +4966,7 @@
     <row r="332" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
-      <c r="D332" s="13"/>
+      <c r="D332" s="5"/>
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
       <c r="G332" s="10"/>
@@ -4972,7 +4978,7 @@
     <row r="333" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
-      <c r="D333" s="13"/>
+      <c r="D333" s="5"/>
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
       <c r="G333" s="10"/>
@@ -4984,7 +4990,7 @@
     <row r="334" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
-      <c r="D334" s="13"/>
+      <c r="D334" s="5"/>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
       <c r="G334" s="10"/>
@@ -4996,7 +5002,7 @@
     <row r="335" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
-      <c r="D335" s="13"/>
+      <c r="D335" s="5"/>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
       <c r="G335" s="10"/>
@@ -5008,7 +5014,7 @@
     <row r="336" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
-      <c r="D336" s="13"/>
+      <c r="D336" s="5"/>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
       <c r="G336" s="10"/>
@@ -5020,7 +5026,7 @@
     <row r="337" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
-      <c r="D337" s="13"/>
+      <c r="D337" s="5"/>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
       <c r="G337" s="10"/>
@@ -5032,7 +5038,7 @@
     <row r="338" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
-      <c r="D338" s="13"/>
+      <c r="D338" s="5"/>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
       <c r="G338" s="10"/>
@@ -5044,7 +5050,7 @@
     <row r="339" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
-      <c r="D339" s="13"/>
+      <c r="D339" s="5"/>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
       <c r="G339" s="10"/>
@@ -5056,7 +5062,7 @@
     <row r="340" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
-      <c r="D340" s="13"/>
+      <c r="D340" s="5"/>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
       <c r="G340" s="10"/>
@@ -5068,7 +5074,7 @@
     <row r="341" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
-      <c r="D341" s="13"/>
+      <c r="D341" s="5"/>
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
       <c r="G341" s="10"/>
@@ -5080,7 +5086,7 @@
     <row r="342" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
-      <c r="D342" s="13"/>
+      <c r="D342" s="5"/>
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
       <c r="G342" s="10"/>
@@ -5092,7 +5098,7 @@
     <row r="343" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
-      <c r="D343" s="13"/>
+      <c r="D343" s="5"/>
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
       <c r="G343" s="10"/>
@@ -5104,7 +5110,7 @@
     <row r="344" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
-      <c r="D344" s="13"/>
+      <c r="D344" s="5"/>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
       <c r="G344" s="10"/>
@@ -5116,7 +5122,7 @@
     <row r="345" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
-      <c r="D345" s="13"/>
+      <c r="D345" s="5"/>
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
       <c r="G345" s="10"/>
@@ -5128,7 +5134,7 @@
     <row r="346" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
-      <c r="D346" s="13"/>
+      <c r="D346" s="5"/>
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
       <c r="G346" s="10"/>
@@ -5140,7 +5146,7 @@
     <row r="347" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
-      <c r="D347" s="13"/>
+      <c r="D347" s="5"/>
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
       <c r="G347" s="10"/>
@@ -5152,7 +5158,7 @@
     <row r="348" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
-      <c r="D348" s="13"/>
+      <c r="D348" s="5"/>
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
       <c r="G348" s="10"/>
@@ -5164,7 +5170,7 @@
     <row r="349" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
-      <c r="D349" s="13"/>
+      <c r="D349" s="5"/>
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
       <c r="G349" s="10"/>
@@ -5176,7 +5182,7 @@
     <row r="350" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
-      <c r="D350" s="13"/>
+      <c r="D350" s="5"/>
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
       <c r="G350" s="10"/>
@@ -5188,7 +5194,7 @@
     <row r="351" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
-      <c r="D351" s="13"/>
+      <c r="D351" s="5"/>
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
       <c r="G351" s="10"/>
@@ -5200,7 +5206,7 @@
     <row r="352" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
-      <c r="D352" s="13"/>
+      <c r="D352" s="5"/>
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
       <c r="G352" s="10"/>
@@ -5212,7 +5218,7 @@
     <row r="353" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
-      <c r="D353" s="13"/>
+      <c r="D353" s="5"/>
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
       <c r="G353" s="10"/>
@@ -5224,7 +5230,7 @@
     <row r="354" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
-      <c r="D354" s="13"/>
+      <c r="D354" s="5"/>
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
       <c r="G354" s="10"/>
@@ -5236,7 +5242,7 @@
     <row r="355" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
-      <c r="D355" s="13"/>
+      <c r="D355" s="5"/>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
       <c r="G355" s="10"/>
@@ -5248,7 +5254,7 @@
     <row r="356" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
-      <c r="D356" s="13"/>
+      <c r="D356" s="5"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
       <c r="G356" s="10"/>
@@ -5260,7 +5266,7 @@
     <row r="357" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
-      <c r="D357" s="13"/>
+      <c r="D357" s="5"/>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
       <c r="G357" s="10"/>
@@ -5272,7 +5278,7 @@
     <row r="358" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
-      <c r="D358" s="13"/>
+      <c r="D358" s="5"/>
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
       <c r="G358" s="10"/>
@@ -5284,7 +5290,7 @@
     <row r="359" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
-      <c r="D359" s="13"/>
+      <c r="D359" s="5"/>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
       <c r="G359" s="10"/>
@@ -5296,7 +5302,7 @@
     <row r="360" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
-      <c r="D360" s="13"/>
+      <c r="D360" s="5"/>
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
       <c r="G360" s="10"/>
@@ -5308,7 +5314,7 @@
     <row r="361" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
-      <c r="D361" s="13"/>
+      <c r="D361" s="5"/>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
       <c r="G361" s="10"/>
@@ -5320,7 +5326,7 @@
     <row r="362" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
-      <c r="D362" s="13"/>
+      <c r="D362" s="5"/>
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
       <c r="G362" s="10"/>
@@ -5332,7 +5338,7 @@
     <row r="363" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
-      <c r="D363" s="13"/>
+      <c r="D363" s="5"/>
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
       <c r="G363" s="10"/>
@@ -5344,7 +5350,7 @@
     <row r="364" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
-      <c r="D364" s="13"/>
+      <c r="D364" s="5"/>
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
       <c r="G364" s="10"/>
@@ -5356,7 +5362,7 @@
     <row r="365" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
-      <c r="D365" s="13"/>
+      <c r="D365" s="5"/>
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
       <c r="G365" s="10"/>
@@ -5368,7 +5374,7 @@
     <row r="366" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
-      <c r="D366" s="13"/>
+      <c r="D366" s="5"/>
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
       <c r="G366" s="10"/>
@@ -5380,7 +5386,7 @@
     <row r="367" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
-      <c r="D367" s="13"/>
+      <c r="D367" s="5"/>
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
       <c r="G367" s="10"/>
@@ -5392,7 +5398,7 @@
     <row r="368" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
-      <c r="D368" s="13"/>
+      <c r="D368" s="5"/>
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
       <c r="G368" s="10"/>
@@ -5404,7 +5410,7 @@
     <row r="369" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
-      <c r="D369" s="13"/>
+      <c r="D369" s="5"/>
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
       <c r="G369" s="10"/>
@@ -5416,7 +5422,7 @@
     <row r="370" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
-      <c r="D370" s="13"/>
+      <c r="D370" s="5"/>
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
       <c r="G370" s="10"/>
@@ -5428,7 +5434,7 @@
     <row r="371" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
-      <c r="D371" s="13"/>
+      <c r="D371" s="5"/>
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
       <c r="G371" s="10"/>
@@ -5440,7 +5446,7 @@
     <row r="372" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
-      <c r="D372" s="13"/>
+      <c r="D372" s="5"/>
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
       <c r="G372" s="10"/>
@@ -5452,7 +5458,7 @@
     <row r="373" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
-      <c r="D373" s="13"/>
+      <c r="D373" s="5"/>
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
       <c r="G373" s="10"/>
@@ -5464,7 +5470,7 @@
     <row r="374" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
-      <c r="D374" s="13"/>
+      <c r="D374" s="5"/>
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
       <c r="G374" s="10"/>
@@ -5476,7 +5482,7 @@
     <row r="375" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
-      <c r="D375" s="13"/>
+      <c r="D375" s="5"/>
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
       <c r="G375" s="10"/>
@@ -5488,7 +5494,7 @@
     <row r="376" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
-      <c r="D376" s="13"/>
+      <c r="D376" s="5"/>
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
       <c r="G376" s="10"/>
@@ -5500,7 +5506,7 @@
     <row r="377" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
-      <c r="D377" s="13"/>
+      <c r="D377" s="5"/>
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
       <c r="G377" s="10"/>
@@ -5512,7 +5518,7 @@
     <row r="378" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
-      <c r="D378" s="13"/>
+      <c r="D378" s="5"/>
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
       <c r="G378" s="10"/>
@@ -5524,7 +5530,7 @@
     <row r="379" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
-      <c r="D379" s="13"/>
+      <c r="D379" s="5"/>
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
       <c r="G379" s="10"/>
@@ -5536,7 +5542,7 @@
     <row r="380" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
-      <c r="D380" s="13"/>
+      <c r="D380" s="5"/>
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
       <c r="G380" s="10"/>
@@ -5548,7 +5554,7 @@
     <row r="381" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
-      <c r="D381" s="13"/>
+      <c r="D381" s="5"/>
       <c r="E381" s="5"/>
       <c r="F381" s="5"/>
       <c r="G381" s="10"/>
@@ -5560,7 +5566,7 @@
     <row r="382" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
-      <c r="D382" s="13"/>
+      <c r="D382" s="5"/>
       <c r="E382" s="5"/>
       <c r="F382" s="5"/>
       <c r="G382" s="10"/>
@@ -5572,7 +5578,7 @@
     <row r="383" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
-      <c r="D383" s="13"/>
+      <c r="D383" s="5"/>
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
       <c r="G383" s="10"/>
@@ -5584,7 +5590,7 @@
     <row r="384" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
-      <c r="D384" s="13"/>
+      <c r="D384" s="5"/>
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
       <c r="G384" s="10"/>
@@ -5596,7 +5602,7 @@
     <row r="385" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
-      <c r="D385" s="13"/>
+      <c r="D385" s="5"/>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
       <c r="G385" s="10"/>
@@ -5608,7 +5614,7 @@
     <row r="386" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
-      <c r="D386" s="13"/>
+      <c r="D386" s="5"/>
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
       <c r="G386" s="10"/>
@@ -5620,7 +5626,7 @@
     <row r="387" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
-      <c r="D387" s="13"/>
+      <c r="D387" s="5"/>
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
       <c r="G387" s="10"/>
@@ -5632,7 +5638,7 @@
     <row r="388" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
-      <c r="D388" s="13"/>
+      <c r="D388" s="5"/>
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
       <c r="G388" s="10"/>
@@ -5644,7 +5650,7 @@
     <row r="389" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
-      <c r="D389" s="13"/>
+      <c r="D389" s="5"/>
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
       <c r="G389" s="10"/>
@@ -5656,7 +5662,7 @@
     <row r="390" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
-      <c r="D390" s="13"/>
+      <c r="D390" s="5"/>
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
       <c r="G390" s="10"/>
@@ -5668,7 +5674,7 @@
     <row r="391" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
-      <c r="D391" s="13"/>
+      <c r="D391" s="5"/>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
       <c r="G391" s="10"/>
@@ -5680,7 +5686,7 @@
     <row r="392" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
-      <c r="D392" s="13"/>
+      <c r="D392" s="5"/>
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
       <c r="G392" s="10"/>
@@ -5692,7 +5698,7 @@
     <row r="393" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
-      <c r="D393" s="13"/>
+      <c r="D393" s="5"/>
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
       <c r="G393" s="10"/>
@@ -5704,7 +5710,7 @@
     <row r="394" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
-      <c r="D394" s="13"/>
+      <c r="D394" s="5"/>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
       <c r="G394" s="10"/>
@@ -5716,7 +5722,7 @@
     <row r="395" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
-      <c r="D395" s="13"/>
+      <c r="D395" s="5"/>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
       <c r="G395" s="10"/>
@@ -5728,7 +5734,7 @@
     <row r="396" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
-      <c r="D396" s="13"/>
+      <c r="D396" s="5"/>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
       <c r="G396" s="10"/>
@@ -5740,7 +5746,7 @@
     <row r="397" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
-      <c r="D397" s="13"/>
+      <c r="D397" s="5"/>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
       <c r="G397" s="10"/>
@@ -5752,7 +5758,7 @@
     <row r="398" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
-      <c r="D398" s="13"/>
+      <c r="D398" s="5"/>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
       <c r="G398" s="10"/>
@@ -5764,7 +5770,7 @@
     <row r="399" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
-      <c r="D399" s="13"/>
+      <c r="D399" s="5"/>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
       <c r="G399" s="10"/>
@@ -5776,7 +5782,7 @@
     <row r="400" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
-      <c r="D400" s="13"/>
+      <c r="D400" s="5"/>
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
       <c r="G400" s="10"/>
@@ -5788,7 +5794,7 @@
     <row r="401" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
-      <c r="D401" s="13"/>
+      <c r="D401" s="5"/>
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
       <c r="G401" s="10"/>
@@ -5800,7 +5806,7 @@
     <row r="402" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
-      <c r="D402" s="13"/>
+      <c r="D402" s="5"/>
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
       <c r="G402" s="10"/>
@@ -5812,7 +5818,7 @@
     <row r="403" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
-      <c r="D403" s="13"/>
+      <c r="D403" s="5"/>
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
       <c r="G403" s="10"/>
@@ -5824,7 +5830,7 @@
     <row r="404" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
-      <c r="D404" s="13"/>
+      <c r="D404" s="5"/>
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
       <c r="G404" s="10"/>
@@ -5836,7 +5842,7 @@
     <row r="405" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
-      <c r="D405" s="13"/>
+      <c r="D405" s="5"/>
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
       <c r="G405" s="10"/>
@@ -5848,7 +5854,7 @@
     <row r="406" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
-      <c r="D406" s="13"/>
+      <c r="D406" s="5"/>
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
       <c r="G406" s="10"/>
@@ -5860,7 +5866,7 @@
     <row r="407" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
-      <c r="D407" s="13"/>
+      <c r="D407" s="5"/>
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
       <c r="G407" s="10"/>
@@ -5872,7 +5878,7 @@
     <row r="408" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
-      <c r="D408" s="13"/>
+      <c r="D408" s="5"/>
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
       <c r="G408" s="10"/>
@@ -5884,7 +5890,7 @@
     <row r="409" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
-      <c r="D409" s="13"/>
+      <c r="D409" s="5"/>
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
       <c r="G409" s="10"/>
@@ -5896,7 +5902,7 @@
     <row r="410" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
-      <c r="D410" s="13"/>
+      <c r="D410" s="5"/>
       <c r="E410" s="5"/>
       <c r="F410" s="5"/>
       <c r="G410" s="10"/>
@@ -5908,7 +5914,7 @@
     <row r="411" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
-      <c r="D411" s="13"/>
+      <c r="D411" s="5"/>
       <c r="E411" s="5"/>
       <c r="F411" s="5"/>
       <c r="G411" s="10"/>
@@ -5920,7 +5926,7 @@
     <row r="412" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
-      <c r="D412" s="13"/>
+      <c r="D412" s="5"/>
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
       <c r="G412" s="10"/>
@@ -5932,7 +5938,7 @@
     <row r="413" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
-      <c r="D413" s="13"/>
+      <c r="D413" s="5"/>
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
       <c r="G413" s="10"/>
@@ -5944,7 +5950,7 @@
     <row r="414" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
-      <c r="D414" s="13"/>
+      <c r="D414" s="5"/>
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
       <c r="G414" s="10"/>
@@ -5956,7 +5962,7 @@
     <row r="415" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
-      <c r="D415" s="13"/>
+      <c r="D415" s="5"/>
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
       <c r="G415" s="10"/>
@@ -5968,7 +5974,7 @@
     <row r="416" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
-      <c r="D416" s="13"/>
+      <c r="D416" s="5"/>
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
       <c r="G416" s="10"/>
@@ -5980,7 +5986,7 @@
     <row r="417" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
-      <c r="D417" s="13"/>
+      <c r="D417" s="5"/>
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
       <c r="G417" s="10"/>
@@ -5992,7 +5998,7 @@
     <row r="418" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
-      <c r="D418" s="13"/>
+      <c r="D418" s="5"/>
       <c r="E418" s="5"/>
       <c r="F418" s="5"/>
       <c r="G418" s="10"/>
@@ -6004,7 +6010,7 @@
     <row r="419" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
-      <c r="D419" s="13"/>
+      <c r="D419" s="5"/>
       <c r="E419" s="5"/>
       <c r="F419" s="5"/>
       <c r="G419" s="10"/>
@@ -6016,7 +6022,7 @@
     <row r="420" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
-      <c r="D420" s="13"/>
+      <c r="D420" s="5"/>
       <c r="E420" s="5"/>
       <c r="F420" s="5"/>
       <c r="G420" s="10"/>
@@ -6028,7 +6034,7 @@
     <row r="421" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
-      <c r="D421" s="13"/>
+      <c r="D421" s="5"/>
       <c r="E421" s="5"/>
       <c r="F421" s="5"/>
       <c r="G421" s="10"/>
@@ -6040,7 +6046,7 @@
     <row r="422" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
-      <c r="D422" s="13"/>
+      <c r="D422" s="5"/>
       <c r="E422" s="5"/>
       <c r="F422" s="5"/>
       <c r="G422" s="10"/>
@@ -6052,7 +6058,7 @@
     <row r="423" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
-      <c r="D423" s="13"/>
+      <c r="D423" s="5"/>
       <c r="E423" s="5"/>
       <c r="F423" s="5"/>
       <c r="G423" s="10"/>
@@ -6064,7 +6070,7 @@
     <row r="424" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
-      <c r="D424" s="13"/>
+      <c r="D424" s="5"/>
       <c r="E424" s="5"/>
       <c r="F424" s="5"/>
       <c r="G424" s="10"/>
@@ -6076,7 +6082,7 @@
     <row r="425" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
-      <c r="D425" s="13"/>
+      <c r="D425" s="5"/>
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
       <c r="G425" s="10"/>
@@ -6088,7 +6094,7 @@
     <row r="426" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
-      <c r="D426" s="13"/>
+      <c r="D426" s="5"/>
       <c r="E426" s="5"/>
       <c r="F426" s="5"/>
       <c r="G426" s="10"/>
@@ -6100,7 +6106,7 @@
     <row r="427" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
-      <c r="D427" s="13"/>
+      <c r="D427" s="5"/>
       <c r="E427" s="5"/>
       <c r="F427" s="5"/>
       <c r="G427" s="10"/>
@@ -6112,7 +6118,7 @@
     <row r="428" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
-      <c r="D428" s="13"/>
+      <c r="D428" s="5"/>
       <c r="E428" s="5"/>
       <c r="F428" s="5"/>
       <c r="G428" s="10"/>
@@ -6124,7 +6130,7 @@
     <row r="429" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
-      <c r="D429" s="13"/>
+      <c r="D429" s="5"/>
       <c r="E429" s="5"/>
       <c r="F429" s="5"/>
       <c r="G429" s="10"/>
@@ -6136,7 +6142,7 @@
     <row r="430" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
-      <c r="D430" s="13"/>
+      <c r="D430" s="5"/>
       <c r="E430" s="5"/>
       <c r="F430" s="5"/>
       <c r="G430" s="10"/>
@@ -6148,7 +6154,7 @@
     <row r="431" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
-      <c r="D431" s="13"/>
+      <c r="D431" s="5"/>
       <c r="E431" s="5"/>
       <c r="F431" s="5"/>
       <c r="G431" s="10"/>
@@ -6160,7 +6166,7 @@
     <row r="432" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
-      <c r="D432" s="13"/>
+      <c r="D432" s="5"/>
       <c r="E432" s="5"/>
       <c r="F432" s="5"/>
       <c r="G432" s="10"/>
@@ -6172,7 +6178,7 @@
     <row r="433" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
-      <c r="D433" s="13"/>
+      <c r="D433" s="5"/>
       <c r="E433" s="5"/>
       <c r="F433" s="5"/>
       <c r="G433" s="10"/>
@@ -6184,7 +6190,7 @@
     <row r="434" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
-      <c r="D434" s="13"/>
+      <c r="D434" s="5"/>
       <c r="E434" s="5"/>
       <c r="F434" s="5"/>
       <c r="G434" s="10"/>
@@ -6196,7 +6202,7 @@
     <row r="435" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
-      <c r="D435" s="13"/>
+      <c r="D435" s="5"/>
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
       <c r="G435" s="10"/>
@@ -6208,7 +6214,7 @@
     <row r="436" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
-      <c r="D436" s="13"/>
+      <c r="D436" s="5"/>
       <c r="E436" s="5"/>
       <c r="F436" s="5"/>
       <c r="G436" s="10"/>
@@ -6220,7 +6226,7 @@
     <row r="437" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
-      <c r="D437" s="13"/>
+      <c r="D437" s="5"/>
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
       <c r="G437" s="10"/>
@@ -6232,7 +6238,7 @@
     <row r="438" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
-      <c r="D438" s="13"/>
+      <c r="D438" s="5"/>
       <c r="E438" s="5"/>
       <c r="F438" s="5"/>
       <c r="G438" s="10"/>
@@ -6244,7 +6250,7 @@
     <row r="439" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
-      <c r="D439" s="13"/>
+      <c r="D439" s="5"/>
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
       <c r="G439" s="10"/>
@@ -6256,7 +6262,7 @@
     <row r="440" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
-      <c r="D440" s="13"/>
+      <c r="D440" s="5"/>
       <c r="E440" s="5"/>
       <c r="F440" s="5"/>
       <c r="G440" s="10"/>
@@ -6268,7 +6274,7 @@
     <row r="441" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
-      <c r="D441" s="13"/>
+      <c r="D441" s="5"/>
       <c r="E441" s="5"/>
       <c r="F441" s="5"/>
       <c r="G441" s="10"/>
@@ -6280,7 +6286,7 @@
     <row r="442" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
-      <c r="D442" s="13"/>
+      <c r="D442" s="5"/>
       <c r="E442" s="5"/>
       <c r="F442" s="5"/>
       <c r="G442" s="10"/>
@@ -6292,7 +6298,7 @@
     <row r="443" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
-      <c r="D443" s="13"/>
+      <c r="D443" s="5"/>
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
       <c r="G443" s="10"/>
@@ -6304,7 +6310,7 @@
     <row r="444" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
-      <c r="D444" s="13"/>
+      <c r="D444" s="5"/>
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
       <c r="G444" s="10"/>
@@ -6316,7 +6322,7 @@
     <row r="445" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
-      <c r="D445" s="13"/>
+      <c r="D445" s="5"/>
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
       <c r="G445" s="10"/>
@@ -6328,7 +6334,7 @@
     <row r="446" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
-      <c r="D446" s="13"/>
+      <c r="D446" s="5"/>
       <c r="E446" s="5"/>
       <c r="F446" s="5"/>
       <c r="G446" s="10"/>
@@ -6340,7 +6346,7 @@
     <row r="447" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
-      <c r="D447" s="13"/>
+      <c r="D447" s="5"/>
       <c r="E447" s="5"/>
       <c r="F447" s="5"/>
       <c r="G447" s="10"/>
@@ -6352,7 +6358,7 @@
     <row r="448" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
-      <c r="D448" s="13"/>
+      <c r="D448" s="5"/>
       <c r="E448" s="5"/>
       <c r="F448" s="5"/>
       <c r="G448" s="10"/>
@@ -6364,7 +6370,7 @@
     <row r="449" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
-      <c r="D449" s="13"/>
+      <c r="D449" s="5"/>
       <c r="E449" s="5"/>
       <c r="F449" s="5"/>
       <c r="G449" s="10"/>
@@ -6376,7 +6382,7 @@
     <row r="450" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
-      <c r="D450" s="13"/>
+      <c r="D450" s="5"/>
       <c r="E450" s="5"/>
       <c r="F450" s="5"/>
       <c r="G450" s="10"/>
@@ -6388,7 +6394,7 @@
     <row r="451" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
-      <c r="D451" s="13"/>
+      <c r="D451" s="5"/>
       <c r="E451" s="5"/>
       <c r="F451" s="5"/>
       <c r="G451" s="10"/>
@@ -6400,7 +6406,7 @@
     <row r="452" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
-      <c r="D452" s="13"/>
+      <c r="D452" s="5"/>
       <c r="E452" s="5"/>
       <c r="F452" s="5"/>
       <c r="G452" s="10"/>
@@ -6412,7 +6418,7 @@
     <row r="453" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
-      <c r="D453" s="13"/>
+      <c r="D453" s="5"/>
       <c r="E453" s="5"/>
       <c r="F453" s="5"/>
       <c r="G453" s="10"/>
@@ -6424,7 +6430,7 @@
     <row r="454" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
-      <c r="D454" s="13"/>
+      <c r="D454" s="5"/>
       <c r="E454" s="5"/>
       <c r="F454" s="5"/>
       <c r="G454" s="10"/>
@@ -6436,7 +6442,7 @@
     <row r="455" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
-      <c r="D455" s="13"/>
+      <c r="D455" s="5"/>
       <c r="E455" s="5"/>
       <c r="F455" s="5"/>
       <c r="G455" s="10"/>
@@ -6448,7 +6454,7 @@
     <row r="456" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
-      <c r="D456" s="13"/>
+      <c r="D456" s="5"/>
       <c r="E456" s="5"/>
       <c r="F456" s="5"/>
       <c r="G456" s="10"/>
@@ -6460,7 +6466,7 @@
     <row r="457" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
-      <c r="D457" s="13"/>
+      <c r="D457" s="5"/>
       <c r="E457" s="5"/>
       <c r="F457" s="5"/>
       <c r="G457" s="10"/>
@@ -6472,7 +6478,7 @@
     <row r="458" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
-      <c r="D458" s="13"/>
+      <c r="D458" s="5"/>
       <c r="E458" s="5"/>
       <c r="F458" s="5"/>
       <c r="G458" s="10"/>
@@ -6484,7 +6490,7 @@
     <row r="459" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
-      <c r="D459" s="13"/>
+      <c r="D459" s="5"/>
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
       <c r="G459" s="10"/>
@@ -6496,7 +6502,7 @@
     <row r="460" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
-      <c r="D460" s="13"/>
+      <c r="D460" s="5"/>
       <c r="E460" s="5"/>
       <c r="F460" s="5"/>
       <c r="G460" s="10"/>
@@ -6508,7 +6514,7 @@
     <row r="461" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
-      <c r="D461" s="13"/>
+      <c r="D461" s="5"/>
       <c r="E461" s="5"/>
       <c r="F461" s="5"/>
       <c r="G461" s="10"/>
@@ -6520,7 +6526,7 @@
     <row r="462" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
-      <c r="D462" s="13"/>
+      <c r="D462" s="5"/>
       <c r="E462" s="5"/>
       <c r="F462" s="5"/>
       <c r="G462" s="10"/>
@@ -6532,7 +6538,7 @@
     <row r="463" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
-      <c r="D463" s="13"/>
+      <c r="D463" s="5"/>
       <c r="E463" s="5"/>
       <c r="F463" s="5"/>
       <c r="G463" s="10"/>
@@ -6544,7 +6550,7 @@
     <row r="464" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
-      <c r="D464" s="13"/>
+      <c r="D464" s="5"/>
       <c r="E464" s="5"/>
       <c r="F464" s="5"/>
       <c r="G464" s="10"/>
@@ -6556,7 +6562,7 @@
     <row r="465" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
-      <c r="D465" s="13"/>
+      <c r="D465" s="5"/>
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
       <c r="G465" s="10"/>
@@ -6568,7 +6574,7 @@
     <row r="466" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
-      <c r="D466" s="13"/>
+      <c r="D466" s="5"/>
       <c r="E466" s="5"/>
       <c r="F466" s="5"/>
       <c r="G466" s="10"/>
@@ -6580,7 +6586,7 @@
     <row r="467" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
-      <c r="D467" s="13"/>
+      <c r="D467" s="5"/>
       <c r="E467" s="5"/>
       <c r="F467" s="5"/>
       <c r="G467" s="10"/>
@@ -6592,7 +6598,7 @@
     <row r="468" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
-      <c r="D468" s="13"/>
+      <c r="D468" s="5"/>
       <c r="E468" s="5"/>
       <c r="F468" s="5"/>
       <c r="G468" s="10"/>
@@ -6604,7 +6610,7 @@
     <row r="469" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
-      <c r="D469" s="13"/>
+      <c r="D469" s="5"/>
       <c r="E469" s="5"/>
       <c r="F469" s="5"/>
       <c r="G469" s="10"/>
@@ -6616,7 +6622,7 @@
     <row r="470" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
-      <c r="D470" s="13"/>
+      <c r="D470" s="5"/>
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
       <c r="G470" s="10"/>
@@ -6628,7 +6634,7 @@
     <row r="471" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
-      <c r="D471" s="13"/>
+      <c r="D471" s="5"/>
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
       <c r="G471" s="10"/>
@@ -6640,7 +6646,7 @@
     <row r="472" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
-      <c r="D472" s="13"/>
+      <c r="D472" s="5"/>
       <c r="E472" s="5"/>
       <c r="F472" s="5"/>
       <c r="G472" s="10"/>
@@ -6652,7 +6658,7 @@
     <row r="473" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
-      <c r="D473" s="13"/>
+      <c r="D473" s="5"/>
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
       <c r="G473" s="10"/>
@@ -6664,7 +6670,7 @@
     <row r="474" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
-      <c r="D474" s="13"/>
+      <c r="D474" s="5"/>
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
       <c r="G474" s="10"/>
@@ -6676,7 +6682,7 @@
     <row r="475" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
-      <c r="D475" s="13"/>
+      <c r="D475" s="5"/>
       <c r="E475" s="5"/>
       <c r="F475" s="5"/>
       <c r="G475" s="10"/>
@@ -6688,7 +6694,7 @@
     <row r="476" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
-      <c r="D476" s="13"/>
+      <c r="D476" s="5"/>
       <c r="E476" s="5"/>
       <c r="F476" s="5"/>
       <c r="G476" s="10"/>
@@ -6700,7 +6706,7 @@
     <row r="477" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
-      <c r="D477" s="13"/>
+      <c r="D477" s="5"/>
       <c r="E477" s="5"/>
       <c r="F477" s="5"/>
       <c r="G477" s="10"/>
@@ -6712,7 +6718,7 @@
     <row r="478" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
-      <c r="D478" s="13"/>
+      <c r="D478" s="5"/>
       <c r="E478" s="5"/>
       <c r="F478" s="5"/>
       <c r="G478" s="10"/>
@@ -6724,7 +6730,7 @@
     <row r="479" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
-      <c r="D479" s="13"/>
+      <c r="D479" s="5"/>
       <c r="E479" s="5"/>
       <c r="F479" s="5"/>
       <c r="G479" s="10"/>
@@ -6736,7 +6742,7 @@
     <row r="480" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
-      <c r="D480" s="13"/>
+      <c r="D480" s="5"/>
       <c r="E480" s="5"/>
       <c r="F480" s="5"/>
       <c r="G480" s="10"/>
@@ -6748,7 +6754,7 @@
     <row r="481" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
-      <c r="D481" s="13"/>
+      <c r="D481" s="5"/>
       <c r="E481" s="5"/>
       <c r="F481" s="5"/>
       <c r="G481" s="10"/>
@@ -6760,7 +6766,7 @@
     <row r="482" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
-      <c r="D482" s="13"/>
+      <c r="D482" s="5"/>
       <c r="E482" s="5"/>
       <c r="F482" s="5"/>
       <c r="G482" s="10"/>
@@ -6772,7 +6778,7 @@
     <row r="483" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
-      <c r="D483" s="13"/>
+      <c r="D483" s="5"/>
       <c r="E483" s="5"/>
       <c r="F483" s="5"/>
       <c r="G483" s="10"/>
@@ -6784,7 +6790,7 @@
     <row r="484" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
-      <c r="D484" s="13"/>
+      <c r="D484" s="5"/>
       <c r="E484" s="5"/>
       <c r="F484" s="5"/>
       <c r="G484" s="10"/>
@@ -6796,7 +6802,7 @@
     <row r="485" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
-      <c r="D485" s="13"/>
+      <c r="D485" s="5"/>
       <c r="E485" s="5"/>
       <c r="F485" s="5"/>
       <c r="G485" s="10"/>
@@ -6808,7 +6814,7 @@
     <row r="486" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
-      <c r="D486" s="13"/>
+      <c r="D486" s="5"/>
       <c r="E486" s="5"/>
       <c r="F486" s="5"/>
       <c r="G486" s="10"/>
@@ -6820,7 +6826,7 @@
     <row r="487" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
-      <c r="D487" s="13"/>
+      <c r="D487" s="5"/>
       <c r="E487" s="5"/>
       <c r="F487" s="5"/>
       <c r="G487" s="10"/>
@@ -6832,7 +6838,7 @@
     <row r="488" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
-      <c r="D488" s="13"/>
+      <c r="D488" s="5"/>
       <c r="E488" s="5"/>
       <c r="F488" s="5"/>
       <c r="G488" s="10"/>
@@ -6844,7 +6850,7 @@
     <row r="489" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
-      <c r="D489" s="13"/>
+      <c r="D489" s="5"/>
       <c r="E489" s="5"/>
       <c r="F489" s="5"/>
       <c r="G489" s="10"/>
@@ -6856,7 +6862,7 @@
     <row r="490" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
-      <c r="D490" s="13"/>
+      <c r="D490" s="5"/>
       <c r="E490" s="5"/>
       <c r="F490" s="5"/>
       <c r="G490" s="10"/>
@@ -6868,7 +6874,7 @@
     <row r="491" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
-      <c r="D491" s="13"/>
+      <c r="D491" s="5"/>
       <c r="E491" s="5"/>
       <c r="F491" s="5"/>
       <c r="G491" s="10"/>
@@ -6880,7 +6886,7 @@
     <row r="492" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
-      <c r="D492" s="13"/>
+      <c r="D492" s="5"/>
       <c r="E492" s="5"/>
       <c r="F492" s="5"/>
       <c r="G492" s="10"/>
@@ -6892,7 +6898,7 @@
     <row r="493" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
-      <c r="D493" s="13"/>
+      <c r="D493" s="5"/>
       <c r="E493" s="5"/>
       <c r="F493" s="5"/>
       <c r="G493" s="10"/>
@@ -6904,7 +6910,7 @@
     <row r="494" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
-      <c r="D494" s="13"/>
+      <c r="D494" s="5"/>
       <c r="E494" s="5"/>
       <c r="F494" s="5"/>
       <c r="G494" s="10"/>
@@ -6916,7 +6922,7 @@
     <row r="495" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
-      <c r="D495" s="13"/>
+      <c r="D495" s="5"/>
       <c r="E495" s="5"/>
       <c r="F495" s="5"/>
       <c r="G495" s="10"/>
@@ -6928,7 +6934,7 @@
     <row r="496" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
-      <c r="D496" s="13"/>
+      <c r="D496" s="5"/>
       <c r="E496" s="5"/>
       <c r="F496" s="5"/>
       <c r="G496" s="10"/>
@@ -6940,7 +6946,7 @@
     <row r="497" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
-      <c r="D497" s="13"/>
+      <c r="D497" s="5"/>
       <c r="E497" s="5"/>
       <c r="F497" s="5"/>
       <c r="G497" s="10"/>
@@ -6952,7 +6958,7 @@
     <row r="498" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
-      <c r="D498" s="13"/>
+      <c r="D498" s="5"/>
       <c r="E498" s="5"/>
       <c r="F498" s="5"/>
       <c r="G498" s="10"/>
@@ -6964,7 +6970,7 @@
     <row r="499" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
-      <c r="D499" s="13"/>
+      <c r="D499" s="5"/>
       <c r="E499" s="5"/>
       <c r="F499" s="5"/>
       <c r="G499" s="10"/>
@@ -6976,7 +6982,7 @@
     <row r="500" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
-      <c r="D500" s="13"/>
+      <c r="D500" s="5"/>
       <c r="E500" s="5"/>
       <c r="F500" s="5"/>
       <c r="G500" s="10"/>
@@ -6988,7 +6994,7 @@
     <row r="501" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
-      <c r="D501" s="13"/>
+      <c r="D501" s="5"/>
       <c r="E501" s="5"/>
       <c r="F501" s="5"/>
       <c r="G501" s="10"/>
@@ -7000,7 +7006,7 @@
     <row r="502" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
-      <c r="D502" s="13"/>
+      <c r="D502" s="5"/>
       <c r="E502" s="5"/>
       <c r="F502" s="5"/>
       <c r="G502" s="10"/>
@@ -7012,7 +7018,7 @@
     <row r="503" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
-      <c r="D503" s="13"/>
+      <c r="D503" s="5"/>
       <c r="E503" s="5"/>
       <c r="F503" s="5"/>
       <c r="G503" s="10"/>
@@ -7024,7 +7030,7 @@
     <row r="504" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
-      <c r="D504" s="13"/>
+      <c r="D504" s="5"/>
       <c r="E504" s="5"/>
       <c r="F504" s="5"/>
       <c r="G504" s="10"/>
@@ -7036,7 +7042,7 @@
     <row r="505" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
-      <c r="D505" s="13"/>
+      <c r="D505" s="5"/>
       <c r="E505" s="5"/>
       <c r="F505" s="5"/>
       <c r="G505" s="10"/>
@@ -7048,7 +7054,7 @@
     <row r="506" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
-      <c r="D506" s="13"/>
+      <c r="D506" s="5"/>
       <c r="E506" s="5"/>
       <c r="F506" s="5"/>
       <c r="G506" s="10"/>
@@ -7060,7 +7066,7 @@
     <row r="507" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
-      <c r="D507" s="13"/>
+      <c r="D507" s="5"/>
       <c r="E507" s="5"/>
       <c r="F507" s="5"/>
       <c r="G507" s="10"/>
@@ -7072,7 +7078,7 @@
     <row r="508" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
-      <c r="D508" s="13"/>
+      <c r="D508" s="5"/>
       <c r="E508" s="5"/>
       <c r="F508" s="5"/>
       <c r="G508" s="10"/>
@@ -7091,7 +7097,7 @@
       <c r="C509" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D509" s="14" t="s">
+      <c r="D509" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E509" s="1" t="s">
@@ -7142,103 +7148,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685EE166-1AA4-436F-B44F-8D16084AB467}">
   <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="23" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="100.7109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="2.7109375" style="18" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="100.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="17">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="20">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="20"/>
+      <c r="D4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="22">
-        <v>44007</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" s="25">
-        <v>0.44027777777777777</v>
-      </c>
-      <c r="D3" s="24" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="25"/>
-      <c r="D4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>28</v>
+      <c r="E11" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -7272,17 +7278,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simasset1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069060C7-8538-4160-8155-DC72A57B77D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F7D97C-DF9B-44D7-BB79-F553D9558F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3F14D786-EF4A-4F18-A4AF-35B8C3434F90}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>menu</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>berdasarkan revisi dari mbak intan</t>
+  </si>
+  <si>
+    <t>ASSET TYPE</t>
+  </si>
+  <si>
+    <t>new crud</t>
+  </si>
+  <si>
+    <t>karena ada perubahan asset group dan penambahan tabel asset type</t>
+  </si>
+  <si>
+    <t>revisi sql_view v101_ho</t>
   </si>
 </sst>
 </file>
@@ -290,54 +302,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="dotted">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="dotted">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -509,6 +473,54 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="dotted">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="dotted">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -523,7 +535,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{27DE74F8-823A-49F2-A213-7AA24C353506}" name="Table4" displayName="Table4" ref="B1:J508" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{27DE74F8-823A-49F2-A213-7AA24C353506}" name="Table4" displayName="Table4" ref="B1:J508" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="B1:J508" xr:uid="{F8180A44-1D43-4957-8440-1F7B4185231D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -536,15 +548,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{19E92522-A6BD-4E94-B856-DC94D39D3F18}" name="no." dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{21A26A3A-B891-434C-B061-34BF26256B76}" name="Column3" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{345AEBF9-ED2D-45FA-B779-47421EBCAD2F}" name="menu" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{2C540197-2891-4885-B538-F7775156BB8B}" name="start @" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{1F2DABCE-4E8C-4388-941B-EA65019652EF}" name="pending @" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{8DC73AAD-6DCA-4E86-8C49-C7A61A4F2F1C}" name="proses" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{6D372FF9-441F-4340-BC7F-9B6FEB57529E}" name="done @" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{D6ABF375-7A7F-41BC-A4D3-EEA7C3FBE70B}" name="note" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{12B45525-556A-45E4-88CF-711421845045}" name="Column2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{19E92522-A6BD-4E94-B856-DC94D39D3F18}" name="no." dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{21A26A3A-B891-434C-B061-34BF26256B76}" name="Column3" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{345AEBF9-ED2D-45FA-B779-47421EBCAD2F}" name="menu" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{2C540197-2891-4885-B538-F7775156BB8B}" name="start @" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{1F2DABCE-4E8C-4388-941B-EA65019652EF}" name="pending @" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{8DC73AAD-6DCA-4E86-8C49-C7A61A4F2F1C}" name="proses" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{6D372FF9-441F-4340-BC7F-9B6FEB57529E}" name="done @" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D6ABF375-7A7F-41BC-A4D3-EEA7C3FBE70B}" name="note" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{12B45525-556A-45E4-88CF-711421845045}" name="Column2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -850,10 +862,10 @@
   <dimension ref="A1:N511"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,16 +1191,24 @@
       </c>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+    <row r="19" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>6</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="11">
+        <v>44011.552083333336</v>
+      </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="11"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
@@ -1293,10 +1313,10 @@
     </row>
     <row r="27" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="10"/>
@@ -1307,8 +1327,8 @@
     </row>
     <row r="28" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="5"/>
@@ -1332,7 +1352,9 @@
       <c r="G29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="11">
+        <v>44011.549305555556</v>
+      </c>
       <c r="I29" s="5" t="s">
         <v>40</v>
       </c>
@@ -1353,7 +1375,9 @@
     </row>
     <row r="31" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1366,7 +1390,9 @@
     <row r="32" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="10"/>
@@ -1376,13 +1402,21 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="2:14" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="11">
+        <v>44011.425694444442</v>
+      </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="5"/>
+      <c r="G33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="11">
+        <v>44011.549305555556</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="J33" s="10"/>
       <c r="N33" s="1"/>
